--- a/2024 AR Seminar API sheet.xlsx
+++ b/2024 AR Seminar API sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjs04\SPARCS\newbie-seminar-4th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3296E48-9A1E-46A8-953E-775D1CEABFBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766514CF-FAF7-4853-A8D2-9501B1F9B106}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>CODE</t>
   </si>
@@ -66,13 +66,6 @@
   <si>
     <t>두 인수를 더한 값을 리턴합니다.
 - 두 인수가 0 이상의 정수인지 검사합니다.</t>
-  </si>
-  <si>
-    <t>Request Query
-{
-   lhs: int &gt;= 0,
-   rhs: int &gt;= 0,
-}</t>
   </si>
   <si>
     <t>200: 정상 응답
@@ -475,11 +468,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Request Query
-{}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -917,14 +905,59 @@
   </si>
   <si>
     <t>Request Query
+`</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET
+/arithmetic
+/add</t>
+  </si>
+  <si>
+    <t>GET
+/arithmetic
+/sub</t>
+  </si>
+  <si>
+    <t>GET
+/arithmetic
+/mul</t>
+  </si>
+  <si>
+    <t>GET
+/arithmetic
+/div</t>
+  </si>
+  <si>
+    <t>GET/arithmetic/save</t>
+  </si>
+  <si>
+    <t>GET/arithmetic/memo</t>
+  </si>
+  <si>
+    <t>GET/arithmetic/show</t>
+  </si>
+  <si>
+    <t>GET/arithmetic/load</t>
+  </si>
+  <si>
+    <t>Request Query
 {
+   lhs: int &gt;= 0,
+   operator: string,
+   rhs: int &gt;= 0,
    memo: string
 }</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Request Query
-`</t>
+{
+   lhs: int &gt;= 0,
+   operator: string,
+   rhs: int &gt;= 0,
+   memo: string
+}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -971,8 +1004,9 @@
       <t>{
   lhs: int,
   rhs: int,
-  op: int,
-  num: int
+  op: string,
+  result: int
+  memo: string
 }</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -980,42 +1014,24 @@
   <si>
     <t>Request Query
 {
-   lhs: int &gt;= 0,
-   rhs: int &gt;= 0,
+  id: int
 }</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>GET
-/arithmetic
-/add</t>
-  </si>
-  <si>
-    <t>GET
-/arithmetic
-/sub</t>
-  </si>
-  <si>
-    <t>GET
-/arithmetic
-/mul</t>
-  </si>
-  <si>
-    <t>GET
-/arithmetic
-/div</t>
-  </si>
-  <si>
-    <t>GET/arithmetic/save</t>
-  </si>
-  <si>
-    <t>GET/arithmetic/memo</t>
-  </si>
-  <si>
-    <t>GET/arithmetic/show</t>
-  </si>
-  <si>
-    <t>GET/arithmetic/load</t>
+    <t>Request Query
+{
+   id: int
+   memo: string
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request Query
+{
+  search: string
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1372,8 +1388,8 @@
   </sheetPr>
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1473,23 +1489,23 @@
     <row r="3" spans="1:28" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="5"/>
@@ -1515,23 +1531,23 @@
     <row r="4" spans="1:28" ht="80" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="5"/>
@@ -1557,23 +1573,23 @@
     <row r="5" spans="1:28" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="5"/>
@@ -1598,110 +1614,110 @@
     </row>
     <row r="6" spans="1:28" ht="80" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="7" t="s">
-        <v>15</v>
+      <c r="G6" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="80" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="80" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="118.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="80" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="14" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1048576" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H1048576" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
